--- a/output/data/sum_of_ranges.xlsx
+++ b/output/data/sum_of_ranges.xlsx
@@ -435,19 +435,19 @@
         <v>511</v>
       </c>
       <c r="D2" t="n">
-        <v>458.8</v>
+        <v>458.7</v>
       </c>
       <c r="E2" t="n">
-        <v>443.4</v>
+        <v>443.6</v>
       </c>
       <c r="F2" t="n">
-        <v>453.3</v>
+        <v>453.2</v>
       </c>
       <c r="G2" t="n">
         <v>463.4</v>
       </c>
       <c r="H2" t="n">
-        <v>472.8</v>
+        <v>471.9</v>
       </c>
     </row>
     <row r="3">
@@ -461,19 +461,19 @@
         <v>545.5</v>
       </c>
       <c r="D3" t="n">
-        <v>493</v>
+        <v>492.5</v>
       </c>
       <c r="E3" t="n">
-        <v>478.7</v>
+        <v>479</v>
       </c>
       <c r="F3" t="n">
-        <v>487.7</v>
+        <v>488.1</v>
       </c>
       <c r="G3" t="n">
-        <v>497.6</v>
+        <v>497.1</v>
       </c>
       <c r="H3" t="n">
-        <v>505.7</v>
+        <v>505.6</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +559,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="n">
-        <v>114.9</v>
+        <v>114.2</v>
       </c>
       <c r="G3" t="n">
         <v>143.4</v>
@@ -582,13 +582,13 @@
         <v>189.1</v>
       </c>
       <c r="E4" t="n">
-        <v>149.6</v>
+        <v>150.1</v>
       </c>
       <c r="F4" t="n">
-        <v>173.1</v>
+        <v>173.3</v>
       </c>
       <c r="G4" t="n">
-        <v>194.8</v>
+        <v>196.6</v>
       </c>
       <c r="H4" t="n">
         <v>214.6</v>
@@ -611,7 +611,7 @@
         <v>73.2</v>
       </c>
       <c r="F5" t="n">
-        <v>80.4</v>
+        <v>81.3</v>
       </c>
       <c r="G5" t="n">
         <v>119.2</v>
@@ -631,13 +631,13 @@
         <v>180.2</v>
       </c>
       <c r="D6" t="n">
-        <v>146.3</v>
+        <v>145.7</v>
       </c>
       <c r="E6" t="n">
-        <v>110.8</v>
+        <v>83.6</v>
       </c>
       <c r="F6" t="n">
-        <v>137.1</v>
+        <v>121.4</v>
       </c>
       <c r="G6" t="n">
         <v>149.9</v>
@@ -660,16 +660,16 @@
         <v>273.6</v>
       </c>
       <c r="E7" t="n">
-        <v>246.5</v>
+        <v>246.3</v>
       </c>
       <c r="F7" t="n">
-        <v>264.5</v>
+        <v>265.7</v>
       </c>
       <c r="G7" t="n">
-        <v>282.5</v>
+        <v>281.7</v>
       </c>
       <c r="H7" t="n">
-        <v>296.2</v>
+        <v>294.2</v>
       </c>
     </row>
     <row r="8">
@@ -683,10 +683,10 @@
         <v>312.1</v>
       </c>
       <c r="D8" t="n">
-        <v>270.7</v>
+        <v>270.4</v>
       </c>
       <c r="E8" t="n">
-        <v>244.8</v>
+        <v>243.9</v>
       </c>
       <c r="F8" t="n">
         <v>262.6</v>
@@ -695,7 +695,7 @@
         <v>277.8</v>
       </c>
       <c r="H8" t="n">
-        <v>291</v>
+        <v>290.4</v>
       </c>
     </row>
     <row r="9">
@@ -712,10 +712,10 @@
         <v>125.8</v>
       </c>
       <c r="E9" t="n">
-        <v>81.1</v>
+        <v>81.2</v>
       </c>
       <c r="F9" t="n">
-        <v>122.4</v>
+        <v>122</v>
       </c>
       <c r="G9" t="n">
         <v>152.9</v>

--- a/output/data/sum_of_ranges.xlsx
+++ b/output/data/sum_of_ranges.xlsx
@@ -39,10 +39,10 @@
     <t xml:space="preserve">97.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new_descriptions</t>
+    <t xml:space="preserve">Previous data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current data</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>

--- a/output/data/sum_of_ranges.xlsx
+++ b/output/data/sum_of_ranges.xlsx
@@ -435,19 +435,19 @@
         <v>511</v>
       </c>
       <c r="D2" t="n">
-        <v>458.7</v>
+        <v>458</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6</v>
+        <v>443.2</v>
       </c>
       <c r="F2" t="n">
-        <v>453.2</v>
+        <v>453.1</v>
       </c>
       <c r="G2" t="n">
-        <v>463.4</v>
+        <v>463.2</v>
       </c>
       <c r="H2" t="n">
-        <v>471.9</v>
+        <v>471.6</v>
       </c>
     </row>
     <row r="3">
@@ -464,16 +464,16 @@
         <v>492.5</v>
       </c>
       <c r="E3" t="n">
-        <v>479</v>
+        <v>478.6</v>
       </c>
       <c r="F3" t="n">
-        <v>488.1</v>
+        <v>488</v>
       </c>
       <c r="G3" t="n">
-        <v>497.1</v>
+        <v>497.4</v>
       </c>
       <c r="H3" t="n">
-        <v>505.6</v>
+        <v>505.4</v>
       </c>
     </row>
   </sheetData>
@@ -559,13 +559,13 @@
         <v>74</v>
       </c>
       <c r="F3" t="n">
-        <v>114.2</v>
+        <v>114.9</v>
       </c>
       <c r="G3" t="n">
-        <v>143.4</v>
+        <v>142.8</v>
       </c>
       <c r="H3" t="n">
-        <v>165.9</v>
+        <v>147.1</v>
       </c>
     </row>
     <row r="4">
@@ -579,7 +579,7 @@
         <v>226.2</v>
       </c>
       <c r="D4" t="n">
-        <v>189.1</v>
+        <v>189</v>
       </c>
       <c r="E4" t="n">
         <v>150.1</v>
@@ -631,13 +631,13 @@
         <v>180.2</v>
       </c>
       <c r="D6" t="n">
-        <v>145.7</v>
+        <v>143.7</v>
       </c>
       <c r="E6" t="n">
-        <v>83.6</v>
+        <v>109.7</v>
       </c>
       <c r="F6" t="n">
-        <v>121.4</v>
+        <v>124.1</v>
       </c>
       <c r="G6" t="n">
         <v>149.9</v>
@@ -657,19 +657,19 @@
         <v>320.9</v>
       </c>
       <c r="D7" t="n">
-        <v>273.6</v>
+        <v>273.9</v>
       </c>
       <c r="E7" t="n">
-        <v>246.3</v>
+        <v>247.2</v>
       </c>
       <c r="F7" t="n">
-        <v>265.7</v>
+        <v>265.8</v>
       </c>
       <c r="G7" t="n">
-        <v>281.7</v>
+        <v>281.8</v>
       </c>
       <c r="H7" t="n">
-        <v>294.2</v>
+        <v>294.4</v>
       </c>
     </row>
     <row r="8">
@@ -683,19 +683,19 @@
         <v>312.1</v>
       </c>
       <c r="D8" t="n">
-        <v>270.4</v>
+        <v>270.7</v>
       </c>
       <c r="E8" t="n">
-        <v>243.9</v>
+        <v>245</v>
       </c>
       <c r="F8" t="n">
-        <v>262.6</v>
+        <v>262.7</v>
       </c>
       <c r="G8" t="n">
-        <v>277.8</v>
+        <v>278.5</v>
       </c>
       <c r="H8" t="n">
-        <v>290.4</v>
+        <v>289.6</v>
       </c>
     </row>
     <row r="9">
@@ -703,25 +703,25 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>174.9</v>
+        <v>201.2</v>
       </c>
       <c r="D9" t="n">
-        <v>125.8</v>
+        <v>166.4</v>
       </c>
       <c r="E9" t="n">
-        <v>81.2</v>
+        <v>122</v>
       </c>
       <c r="F9" t="n">
-        <v>122</v>
+        <v>150.9</v>
       </c>
       <c r="G9" t="n">
-        <v>152.9</v>
+        <v>173.7</v>
       </c>
       <c r="H9" t="n">
-        <v>174.9</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
